--- a/inputs/unified_input_test_nor.xlsx
+++ b/inputs/unified_input_test_nor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E3567-D7A5-44D2-B635-3AC28BAE8BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD4A5A6-11D9-4151-8837-6CB54121646D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotors" sheetId="1" r:id="rId1"/>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FC0B67-C143-4E31-A58F-929298EF32F4}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1868,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF60E026-DFCE-4B7C-93B7-9A2B49136D74}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,7 +1899,7 @@
         <v>130</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>143</v>
@@ -1916,7 +1916,7 @@
         <v>131</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>144</v>
@@ -1933,7 +1933,7 @@
         <v>132</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>145</v>
@@ -1950,7 +1950,7 @@
         <v>133</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>146</v>
@@ -1967,7 +1967,7 @@
         <v>134</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>147</v>
@@ -1984,7 +1984,7 @@
         <v>135</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>148</v>
@@ -2001,7 +2001,7 @@
         <v>136</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>149</v>
@@ -2018,7 +2018,7 @@
         <v>137</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>150</v>
@@ -2035,7 +2035,7 @@
         <v>138</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>151</v>
@@ -2052,7 +2052,7 @@
         <v>139</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>152</v>
@@ -2069,7 +2069,7 @@
         <v>140</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>153</v>
@@ -2086,7 +2086,7 @@
         <v>141</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>154</v>
@@ -2103,7 +2103,7 @@
         <v>142</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>155</v>
@@ -2121,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502EE380-1294-47CC-AC74-6448CC6863B6}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
